--- a/DA.B406_52000823_52000783.xlsx
+++ b/DA.B406_52000823_52000783.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PHUONG NAM\OneDrive\Desktop\Other\Documents\xAI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\DACNTT\xAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B702F511-079A-4496-99FE-9FA6EEC80F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63838E3B-38F3-41BE-88AC-82DB1701F4B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D4BD54A8-8A29-490D-AE46-455AD473DFA0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{D4BD54A8-8A29-490D-AE46-455AD473DFA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,15 +22,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -474,8 +465,31 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -486,19 +500,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -516,21 +522,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -550,9 +541,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -590,7 +581,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -696,7 +687,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -838,7 +829,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -851,8 +842,8 @@
   </sheetPr>
   <dimension ref="A1:Y1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -866,12 +857,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="4" customFormat="1" ht="41.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -895,14 +886,14 @@
       <c r="Y1" s="3"/>
     </row>
     <row r="2" spans="1:25" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -952,13 +943,13 @@
     </row>
     <row r="4" spans="1:25" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -981,15 +972,15 @@
     </row>
     <row r="5" spans="1:25" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -1012,15 +1003,15 @@
     </row>
     <row r="6" spans="1:25" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="15" t="s">
+      <c r="C6" s="27"/>
+      <c r="D6" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -1043,17 +1034,17 @@
     </row>
     <row r="7" spans="1:25" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="16">
+      <c r="C7" s="16"/>
+      <c r="D7" s="12">
         <v>52000823</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="22"/>
+      <c r="F7" s="16"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -1076,15 +1067,15 @@
     </row>
     <row r="8" spans="1:25" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="15" t="s">
+      <c r="C8" s="27"/>
+      <c r="D8" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -1107,17 +1098,17 @@
     </row>
     <row r="9" spans="1:25" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="16">
+      <c r="C9" s="16"/>
+      <c r="D9" s="12">
         <v>52000783</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="22"/>
+      <c r="F9" s="16"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -1140,13 +1131,13 @@
     </row>
     <row r="10" spans="1:25" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -1169,17 +1160,17 @@
     </row>
     <row r="11" spans="1:25" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="15" t="s">
+      <c r="C11" s="16"/>
+      <c r="D11" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="13" t="s">
         <v>31</v>
       </c>
       <c r="G11" s="2"/>
@@ -1204,15 +1195,15 @@
     </row>
     <row r="12" spans="1:25" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -1235,15 +1226,15 @@
     </row>
     <row r="13" spans="1:25" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -1266,15 +1257,15 @@
     </row>
     <row r="14" spans="1:25" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="15">
         <v>45621</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -1372,13 +1363,13 @@
         <f>B17+6</f>
         <v>45627</v>
       </c>
-      <c r="D17" s="33" t="s">
+      <c r="D17" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="33" t="s">
+      <c r="E17" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="32">
+      <c r="F17" s="20">
         <v>1</v>
       </c>
       <c r="G17" s="2"/>
@@ -1413,13 +1404,13 @@
         <f t="shared" ref="C18:C29" si="0">B18+6</f>
         <v>45634</v>
       </c>
-      <c r="D18" s="34" t="s">
+      <c r="D18" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="34" t="s">
+      <c r="E18" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="32">
+      <c r="F18" s="20">
         <v>1</v>
       </c>
       <c r="G18" s="2"/>
@@ -1454,13 +1445,13 @@
         <f t="shared" si="0"/>
         <v>45641</v>
       </c>
-      <c r="D19" s="34" t="s">
+      <c r="D19" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="34" t="s">
+      <c r="E19" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="F19" s="32">
+      <c r="F19" s="20">
         <v>1</v>
       </c>
       <c r="G19" s="2"/>
@@ -1483,7 +1474,7 @@
       <c r="X19" s="2"/>
       <c r="Y19" s="2"/>
     </row>
-    <row r="20" spans="1:25" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" ht="33.6" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>4</v>
       </c>
@@ -1495,13 +1486,13 @@
         <f t="shared" si="0"/>
         <v>45648</v>
       </c>
-      <c r="D20" s="33" t="s">
+      <c r="D20" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="E20" s="34" t="s">
+      <c r="E20" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="F20" s="32">
+      <c r="F20" s="20">
         <v>1</v>
       </c>
       <c r="G20" s="2"/>
@@ -1536,13 +1527,13 @@
         <f t="shared" si="0"/>
         <v>45655</v>
       </c>
-      <c r="D21" s="33" t="s">
+      <c r="D21" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="34" t="s">
+      <c r="E21" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="F21" s="32">
+      <c r="F21" s="20">
         <v>1</v>
       </c>
       <c r="G21" s="2"/>
@@ -1577,13 +1568,13 @@
         <f t="shared" si="0"/>
         <v>45662</v>
       </c>
-      <c r="D22" s="33" t="s">
+      <c r="D22" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="E22" s="34" t="s">
+      <c r="E22" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="F22" s="32">
+      <c r="F22" s="20">
         <v>1</v>
       </c>
       <c r="G22" s="2"/>
@@ -1618,13 +1609,13 @@
         <f t="shared" si="0"/>
         <v>45669</v>
       </c>
-      <c r="D23" s="33" t="s">
+      <c r="D23" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="34" t="s">
+      <c r="E23" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="F23" s="32">
+      <c r="F23" s="20">
         <v>1</v>
       </c>
       <c r="G23" s="2"/>
@@ -1659,13 +1650,13 @@
         <f t="shared" si="0"/>
         <v>45676</v>
       </c>
-      <c r="D24" s="33" t="s">
+      <c r="D24" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="E24" s="33" t="s">
+      <c r="E24" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="F24" s="32">
+      <c r="F24" s="20">
         <v>1</v>
       </c>
       <c r="G24" s="2"/>
@@ -1700,11 +1691,11 @@
         <f t="shared" si="0"/>
         <v>45683</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
@@ -1737,11 +1728,11 @@
         <f t="shared" si="0"/>
         <v>45690</v>
       </c>
-      <c r="D26" s="24" t="s">
+      <c r="D26" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="25"/>
-      <c r="F26" s="26"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="31"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
@@ -1774,9 +1765,9 @@
         <f t="shared" si="0"/>
         <v>45697</v>
       </c>
-      <c r="D27" s="27"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="29"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="34"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
@@ -1798,14 +1789,14 @@
       <c r="Y27" s="2"/>
     </row>
     <row r="28" spans="1:25" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="30">
+      <c r="A28" s="18">
         <v>12</v>
       </c>
-      <c r="B28" s="31">
+      <c r="B28" s="19">
         <f t="shared" si="2"/>
         <v>45698</v>
       </c>
-      <c r="C28" s="31">
+      <c r="C28" s="19">
         <f t="shared" si="0"/>
         <v>45704</v>
       </c>
@@ -1815,7 +1806,7 @@
       <c r="E28" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F28" s="32">
+      <c r="F28" s="20">
         <v>1</v>
       </c>
       <c r="G28" s="2"/>
@@ -1850,11 +1841,11 @@
         <f t="shared" si="0"/>
         <v>45711</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
@@ -1885,11 +1876,11 @@
       <c r="C30" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
@@ -1911,9 +1902,9 @@
       <c r="Y30" s="2"/>
     </row>
     <row r="31" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
+      <c r="A31" s="23"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
       <c r="D31" s="3"/>
       <c r="E31" s="1" t="s">
         <v>20</v>
